--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtonn\Documents\codingBootcamp\projects\chores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A988B8B-C663-4FC4-81EA-DFA4148E3BC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1920BA-F3F4-4FC0-BC37-6E7459C2601E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-924" yWindow="0" windowWidth="7572" windowHeight="7200" xr2:uid="{B82E7AD6-12A4-43C8-90F2-DC3593CFF9B5}"/>
+    <workbookView xWindow="37185" yWindow="1665" windowWidth="14580" windowHeight="10170" xr2:uid="{B82E7AD6-12A4-43C8-90F2-DC3593CFF9B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Chore</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -48,12 +39,6 @@
     <t>chore_name</t>
   </si>
   <si>
-    <t>importance</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
     <t>person_name</t>
   </si>
   <si>
@@ -61,13 +46,55 @@
   </si>
   <si>
     <t>house_name</t>
+  </si>
+  <si>
+    <t>houses</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>chores</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>person_email</t>
+  </si>
+  <si>
+    <t>chore_importance</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>chore_complete</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>houseId</t>
+  </si>
+  <si>
+    <t>personId</t>
+  </si>
+  <si>
+    <t>TABLES</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +110,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -100,13 +176,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,72 +626,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0003AC4F-A0CF-461C-9983-C028089B3CB1}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
